--- a/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/R_calc_2018/Data/Z_index_measurement_and_Sara_genetic_data.xlsx
+++ b/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/R_calc_2018/Data/Z_index_measurement_and_Sara_genetic_data.xlsx
@@ -1395,10 +1395,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1409,13 +1409,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1430,8 +1461,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1445,10 +1485,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1460,49 +1501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,23 +1517,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,10 +1545,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1562,19 +1562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,7 +1574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +1586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1604,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,25 +1652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,13 +1676,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,49 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,7 +1742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,6 +1753,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1767,6 +1797,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,59 +1838,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,16 +1858,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1879,127 +1879,127 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2328,11 +2328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:J428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D432" sqref="D432"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:10">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:10">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:10">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:10">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:10">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:10">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:10">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:10">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:10">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:10">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:10">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:10">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:10">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:10">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:10">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:10">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:10">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:10">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:10">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:10">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:10">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:10">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:10">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:10">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:10">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:10">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:10">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:10">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:10">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:10">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:10">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:10">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:10">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:10">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:10">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:10">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:10">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:10">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:10">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:10">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:10">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:10">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:10">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:10">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:10">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:10">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:10">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:10">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:10">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:10">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:10">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:10">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:10">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:10">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:10">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:10">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:10">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:10">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:10">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:10">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:10">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:10">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:10">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:10">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:10">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:10">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:10">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:10">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:10">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:10">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:10">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:10">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:10">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:10">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:10">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:10">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:10">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:10">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:10">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:10">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:10">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:10">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:10">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:10">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:10">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:10">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:10">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:10">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:10">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:10">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:10">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:10">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:10">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:10">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:10">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:10">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:10">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:10">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:10">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:10">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:10">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:10">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:10">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:10">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:10">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:10">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:10">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:10">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:10">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:10">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:10">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>166</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:10">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:10">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:10">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>169</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:10">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:10">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:10">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>172</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:10">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:10">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:10">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:10">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:10">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:10">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:10">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:10">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:10">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:10">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:10">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:10">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:10">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:10">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:10">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:10">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:10">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:10">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:10">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:10">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:10">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:10">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:10">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:10">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:10">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:10">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>201</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:10">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>202</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:10">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>203</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:10">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>204</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:10">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:10">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:10">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:10">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:10">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:10">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>212</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:10">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>213</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:10">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>214</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:10">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:10">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>216</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:10">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>217</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:10">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>218</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:10">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>219</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:10">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>220</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:10">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>221</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:10">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>222</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:10">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:10">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>224</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:10">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>225</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:10">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>226</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:10">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:10">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>228</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:10">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>229</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:10">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:10">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>231</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:10">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>232</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:10">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>233</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:10">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>234</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:10">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:10">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:10">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:10">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:10">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:10">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:10">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:10">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:10">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:10">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>246</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:10">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:10">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:10">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:10">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>250</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:10">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>251</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:10">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:10">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:10">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>254</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:10">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:10">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:10">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>257</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:10">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:10">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>259</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:10">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:10">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>263</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:10">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>264</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:10">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:10">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>265</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:10">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>266</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:10">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>267</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:10">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>268</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:10">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>269</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:10">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>270</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:10">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>271</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:10">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>272</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:10">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>273</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:10">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>274</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:10">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>275</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:10">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>276</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:10">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>277</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:10">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>278</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:10">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>279</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:10">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>280</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:10">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>281</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:10">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>282</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:10">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>283</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:10">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>284</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:10">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>285</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:10">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>286</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:10">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>287</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:10">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>288</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:10">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>289</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:10">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>290</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:10">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:10">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>294</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:10">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:10">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:10">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:10">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>298</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:10">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:10">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:10">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>301</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:10">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:10">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>303</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:10">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>304</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:10">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:10">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:10">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:10">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>308</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:10">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>309</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:10">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:10">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:10">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:10">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:10">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>314</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:10">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>315</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:10">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>316</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:10">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>317</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:10">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>318</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:10">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>319</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:10">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:10">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:10">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:10">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:10">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:10">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:10">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:10">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:10">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>331</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:10">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>332</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:10">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>333</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:10">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>334</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:10">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>335</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:10">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>336</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:10">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>337</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:10">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>338</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:10">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>339</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:10">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>340</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:10">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>341</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:10">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>342</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:10">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>343</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:10">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>344</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:10">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>345</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:10">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>346</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:10">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>347</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:10">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>348</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:10">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>349</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:10">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>349</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:10">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>350</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:10">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>351</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:10">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>352</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:10">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>353</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:10">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>354</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:10">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>355</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:10">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>356</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:10">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>357</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:10">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>358</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:10">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>359</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:10">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>360</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:10">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>361</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:10">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>362</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:10">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>365</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:10">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>366</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:10">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>367</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:10">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>367</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:10">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>368</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:10">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>369</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:10">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>370</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:10">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>371</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:10">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>372</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:10">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>373</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:10">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>374</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:10">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>375</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:10">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>376</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:10">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>377</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:10">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>378</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:10">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>379</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:10">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>380</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:10">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>380</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:10">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>381</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:10">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>381</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:10">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>382</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:10">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>383</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:10">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>384</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:10">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>385</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:10">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>386</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:10">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>387</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:10">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>388</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:10">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>389</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:10">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>390</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:10">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>391</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:10">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:10">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:10">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:10">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:10">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:10">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:10">
+    <row r="369" spans="1:10">
       <c r="A369" t="s">
         <v>398</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:10">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>399</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:10">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>400</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:10">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:10">
+    <row r="373" spans="1:10">
       <c r="A373" t="s">
         <v>402</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:10">
+    <row r="374" spans="1:10">
       <c r="A374" t="s">
         <v>403</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:10">
+    <row r="375" spans="1:10">
       <c r="A375" t="s">
         <v>404</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:10">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>405</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:10">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>406</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:10">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>407</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:10">
+    <row r="379" spans="1:10">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:10">
+    <row r="380" spans="1:10">
       <c r="A380" t="s">
         <v>409</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:10">
+    <row r="381" spans="1:10">
       <c r="A381" t="s">
         <v>409</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:10">
+    <row r="382" spans="1:10">
       <c r="A382" t="s">
         <v>410</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:10">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>411</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:10">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>412</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:10">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>413</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:10">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>414</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:10">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>415</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:10">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>416</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:10">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>417</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:10">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>418</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:10">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>419</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:10">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>420</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:10">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>421</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:10">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>422</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:10">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>423</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:10">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>424</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:10">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>425</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:10">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>426</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:10">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>427</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:10">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>428</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:10">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>429</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:10">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>430</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:10">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>431</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:10">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>432</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:10">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>433</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:10">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>434</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:10">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>435</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:10">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>436</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:10">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>437</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:10">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>438</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:10">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>439</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:10">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>440</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:10">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>441</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:10">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>442</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:10">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>443</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:10">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>444</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:10">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>445</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:10">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>446</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:10">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>447</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:10">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>448</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:10">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>449</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:10">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>450</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:10">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>451</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:10">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>452</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:10">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>453</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:10">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>454</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:10">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>455</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:10">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>456</v>
       </c>
@@ -16035,11 +16035,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J428">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="REBL249"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
